--- a/excel/赛马2-5名.xlsx
+++ b/excel/赛马2-5名.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,138 +477,6394 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6717030</v>
+        <v>6748309</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Japan -- Kyoto</t>
+          <t>Japan -- Sonoda</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Shonan Xanadu</t>
+          <t>Pure Hikari</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>41327071</v>
+        <v>36129681</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Shonan Xanadu</t>
+          <t>Pure Hikari</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>12322021</v>
+        <v>12314435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6717030</v>
+        <v>6748309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Japan -- Kyoto</t>
+          <t>Japan -- Sonoda</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Caught Alliciant</t>
+          <t>Probable Change</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>41395830</v>
+        <v>35731073</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Caught Alliciant</t>
+          <t>Probable Change</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12322021</v>
+        <v>12314435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6717030</v>
+        <v>6748309</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Japan -- Kyoto</t>
+          <t>Japan -- Sonoda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sourire Mignon</t>
+          <t>Himalayan</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>41654372</v>
+        <v>39355068</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sourire Mignon</t>
+          <t>Himalayan</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>12322021</v>
+        <v>12314435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6717030</v>
+        <v>6748309</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Japan -- Kyoto</t>
+          <t>Japan -- Sonoda</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Meant To Be</t>
+          <t>Schalttag</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>41740414</v>
+        <v>39343724</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Meant To Be</t>
+          <t>Schalttag</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12322021</v>
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6746471</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ena Ascot</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>43375255</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ena Ascot</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6746471</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Over Drive</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>43375257</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Over Drive</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6746471</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Runrun Beam</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>43375258</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Runrun Beam</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6746471</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Eveque</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43380691</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Eveque</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6746467</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Attack Chance</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>43375261</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Attack Chance</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6746467</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pempengusa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>43375264</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pempengusa</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6746467</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rhein Ferne</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>43375265</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rhein Ferne</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6746467</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Makankosappo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>43375266</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Makankosappo</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6746475</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Volteggio</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>35758609</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Volteggio</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6746475</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sun Alfie</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>38079278</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sun Alfie</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6746475</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kimon Carrington</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>39561367</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Kimon Carrington</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6746475</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Oe Kintoki</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>35814641</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Oe Kintoki</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6746490</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Wonder Aument</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>38679649</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Wonder Aument</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6746490</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Miyuki Maverick</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40253278</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Miyuki Maverick</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6746490</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kadosan Gambaru</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>39665530</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Kadosan Gambaru</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6746490</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tenkobahi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>35824764</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tenkobahi</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6746496</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Cry Of The Earth</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>37589086</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cry Of The Earth</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6746496</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Penghu</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>35753795</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Penghu</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6746496</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Flame Force</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>35850484</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Flame Force</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6746496</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Promitto</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>41083030</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Promitto</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6746493</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Lance Of Venus</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>39184014</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Lance Of Venus</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6746493</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A Shin Scipio</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="n">
+        <v>37548319</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>A Shin Scipio</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6746493</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nishino Laevigata</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>39439651</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Nishino Laevigata</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6746493</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Love Bay</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>39522865</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Love Bay</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6746479</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Justin Yuji</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>38322873</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Justin Yuji</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6746479</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Red Acteur</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>36080233</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Red Acteur</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6746479</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Buster Wolf</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>40401848</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Buster Wolf</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6746479</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Taiki Zipangu</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>40282201</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Taiki Zipangu</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6746494</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Tagano William</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>35867911</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tagano William</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6746494</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Methuselah</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4</v>
+      </c>
+      <c r="F35" t="n">
+        <v>36165277</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Methuselah</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6746494</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Namura Tata</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>37145170</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Namura Tata</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6746494</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>King Legend</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35963962</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>King Legend</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6746486</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Windsor Roar</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>38745723</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Windsor Roar</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6746486</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Marina Sunrise</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>40539275</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Marina Sunrise</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6746486</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Secret Glow</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>37394145</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Secret Glow</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6746486</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Honey Loco Skip</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>35808331</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Honey Loco Skip</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6746502</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Oaken</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>37905745</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Oaken</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6746502</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Siena Hope</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>36203029</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Siena Hope</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6746502</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Haste</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>38825805</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Haste</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6746502</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Meisho Satowa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>36565098</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Meisho Satowa</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6746492</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Matta Nashi</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>36412546</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Matta Nashi</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6746492</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Pure Color</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>35947260</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pure Color</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6746492</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Grand Jubilee</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>37055115</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Grand Jubilee</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6746492</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Japan -- Sonoda</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Flora Sunrise</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38624779</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Flora Sunrise</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6746441</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Eugenes</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" t="n">
+        <v>39923449</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Eugenes</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6746441</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mad Ribbon Girl</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>40951703</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mad Ribbon Girl</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6746441</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Gifted Leader</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>40282193</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Gifted Leader</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6746441</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Taisei Ship</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="n">
+        <v>40394780</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Taisei Ship</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6746443</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Loughnashade</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>43114314</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Loughnashade</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6746443</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Shelby</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>42326337</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Shelby</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6746443</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sincere Beauty</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="n">
+        <v>41279699</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Sincere Beauty</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6746443</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Craft King</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>41439736</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Craft King</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6746445</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Siena Curren</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>37584468</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Siena Curren</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6746445</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Majesty Ask</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+      <c r="F59" t="n">
+        <v>36386849</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Majesty Ask</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6746445</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Nyan Nyan</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>35867045</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Nyan Nyan</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6746445</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Waikiki Beach</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>5</v>
+      </c>
+      <c r="F61" t="n">
+        <v>37816156</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Waikiki Beach</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6746448</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Rio Champagne</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" t="n">
+        <v>36710103</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Rio Champagne</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6746448</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mamma Mia</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" t="n">
+        <v>40325734</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Mamma Mia</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6746448</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Miyaji Minnie</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>37764174</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Miyaji Minnie</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6746448</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Smile Thrive</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>4</v>
+      </c>
+      <c r="F65" t="n">
+        <v>38784324</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Smile Thrive</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6746455</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Shu Campanella</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>37628217</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Shu Campanella</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6746455</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Excel Black</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>39755889</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Excel Black</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>6746455</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Nitto Sunny</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" t="n">
+        <v>38739225</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Nitto Sunny</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>6746455</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Jubilance</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>40334751</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Jubilance</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6746450</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sekirei</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" t="n">
+        <v>35807022</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sekirei</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>6746450</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Tatsuno Kiseki</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>3</v>
+      </c>
+      <c r="F71" t="n">
+        <v>38467939</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Tatsuno Kiseki</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>6746450</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Monarch Slugger</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>5</v>
+      </c>
+      <c r="F72" t="n">
+        <v>38768299</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Monarch Slugger</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6746450</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Brilliant Spica</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>39918944</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Brilliant Spica</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6746483</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Large Field</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" t="n">
+        <v>37961285</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Large Field</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6746483</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Magical Leis</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" t="n">
+        <v>40356513</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Magical Leis</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6746483</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mjuk Regulus</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="n">
+        <v>36172547</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Mjuk Regulus</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6746483</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Riko Carbine</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>4</v>
+      </c>
+      <c r="F77" t="n">
+        <v>37594730</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Riko Carbine</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6746460</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fukuno Bartherans</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>37331858</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Fukuno Bartherans</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6746460</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>36792553</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Charleston</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6746460</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Bolero Of Sorrow</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="n">
+        <v>39272739</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Bolero Of Sorrow</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>6746460</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Glorious May</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>38674724</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Glorious May</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>6746468</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Riko Shinzan</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
+      <c r="F82" t="n">
+        <v>37344007</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Riko Shinzan</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6746468</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>D's Rouge</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" t="n">
+        <v>36909742</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>D's Rouge</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6746468</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sanei Jiro</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>3</v>
+      </c>
+      <c r="F84" t="n">
+        <v>35997732</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Sanei Jiro</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6746468</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Der Sturm</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" t="n">
+        <v>38285013</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Der Sturm</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>6746463</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Tamano Fiore</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>35993193</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Tamano Fiore</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6746463</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Yapushi</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>3</v>
+      </c>
+      <c r="F87" t="n">
+        <v>39254831</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Yapushi</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6746463</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Katharsis</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>39272737</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Katharsis</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6746463</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Foresighted</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" t="n">
+        <v>38006879</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Foresighted</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>6746472</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Jugemoon</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" t="n">
+        <v>41183295</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Jugemoon</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>6746472</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Soldier Field</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>41251633</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Soldier Field</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>6746472</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Natural Rise</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>4</v>
+      </c>
+      <c r="F92" t="n">
+        <v>41733710</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Natural Rise</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6746472</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Happy Man</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" t="n">
+        <v>41456512</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Happy Man</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>6746478</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Noble Whisper</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" t="n">
+        <v>39478415</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Noble Whisper</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>6746478</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Anya Azazamasu</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>41038754</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Anya Azazamasu</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>6746478</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Narino Ruru</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>37533533</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Narino Ruru</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>6746478</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Japan -- Kawasaki</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Friendly Moon</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
+      <c r="F97" t="n">
+        <v>38216294</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Friendly Moon</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>6746451</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Links Priere</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2</v>
+      </c>
+      <c r="F98" t="n">
+        <v>40498414</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Links Priere</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>6746451</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Copano Ymir</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" t="n">
+        <v>43201293</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Copano Ymir</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>6746451</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A Domani</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" t="n">
+        <v>40989754</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>A Domani</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>6746451</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Dos Ko</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>5</v>
+      </c>
+      <c r="F101" t="n">
+        <v>41238205</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Dos Ko</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6746458</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Alice Palace</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>4</v>
+      </c>
+      <c r="F102" t="n">
+        <v>35874772</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Alice Palace</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>6746458</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Aoi Rikimaru</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3</v>
+      </c>
+      <c r="F103" t="n">
+        <v>39127456</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Aoi Rikimaru</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>6746458</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Tosen Passo</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" t="n">
+        <v>35932139</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Tosen Passo</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6746458</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ume Temari</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>5</v>
+      </c>
+      <c r="F105" t="n">
+        <v>39232549</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Ume Temari</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6746466</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Nihonpiro Jessica</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>40325771</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Nihonpiro Jessica</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>6746466</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Hardin</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" t="n">
+        <v>35932142</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Hardin</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>6746466</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>A Shin Drago</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" t="n">
+        <v>39334740</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>A Shin Drago</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>6746466</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Mille Tendresses</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3</v>
+      </c>
+      <c r="F109" t="n">
+        <v>39276711</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Mille Tendresses</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6746454</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Maruyo Fursa</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>40577993</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Maruyo Fursa</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>6746454</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>De Klerk</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>35904437</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>De Klerk</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6746454</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Clean Game</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
+      <c r="F112" t="n">
+        <v>35937265</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Clean Game</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6746454</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>K Two Litas</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>36198638</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>K Two Litas</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6746462</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Declencher</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>39405853</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Declencher</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>6746462</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Canotier</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>41295957</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Canotier</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>6746462</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Jolly Memory</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>4</v>
+      </c>
+      <c r="F116" t="n">
+        <v>39456792</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Jolly Memory</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6746462</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Variabile</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>39887698</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Variabile</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6746473</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Fortesa</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>37753077</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Fortesa</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6746473</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Soyogi</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3</v>
+      </c>
+      <c r="F119" t="n">
+        <v>35850457</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Soyogi</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6746473</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Drum Lime</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>39520513</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Drum Lime</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6746473</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Up Feliz</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>37658556</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Up Feliz</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6746476</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Sun Wing</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>37628244</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Sun Wing</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>6746476</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Shonan Harukaze</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>38677954</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Shonan Harukaze</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>6746476</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Orentano</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>38357461</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Orentano</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6746476</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Hope Island</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>37816150</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Hope Island</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6746480</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Hiruno Anttola</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>35863379</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Hiruno Anttola</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>6746480</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Zendan Courage</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>36984109</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Zendan Courage</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6746480</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Dharmawangsa</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>4</v>
+      </c>
+      <c r="F128" t="n">
+        <v>35937411</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Dharmawangsa</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6746480</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Meisho Mut</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>35942055</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Meisho Mut</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6746484</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Kiteya Iyoji</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>39292797</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Kiteya Iyoji</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>6746484</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Brainy Run</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>36250464</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Brainy Run</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>6746484</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Unsung Hero</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>3</v>
+      </c>
+      <c r="F132" t="n">
+        <v>35998133</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Unsung Hero</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>6746484</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Minokoku Stark</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>39295457</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Minokoku Stark</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6746491</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Nihonpiro Port</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>35946961</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Nihonpiro Port</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6746491</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Maruyo Nikiya</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>3</v>
+      </c>
+      <c r="F135" t="n">
+        <v>36080194</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Maruyo Nikiya</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6746491</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Noah Black</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>35867041</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Noah Black</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>6746491</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>35798533</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Wonderful Life</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6746487</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A T Tachyon</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" t="n">
+        <v>38763441</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>A T Tachyon</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6746487</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Arma Hector</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>3</v>
+      </c>
+      <c r="F139" t="n">
+        <v>35820316</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Arma Hector</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6746487</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Morning Fuji</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>35830834</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Morning Fuji</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6746487</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Japan -- Kasamatsu</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Ma Jolie</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>36357596</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Ma Jolie</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>6746435</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Ras Dashen</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>39522863</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Ras Dashen</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6746435</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Hosho Epoch</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>35747966</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Hosho Epoch</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>6746435</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>35942067</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6746435</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Canif</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>35904788</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Canif</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>6746437</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Oken Amazoness</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>5</v>
+      </c>
+      <c r="F146" t="n">
+        <v>35850449</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Oken Amazoness</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6746437</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Pick And Roll</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>39298634</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Pick And Roll</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>6746437</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Kosoku Emi</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>39365402</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Kosoku Emi</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>6746437</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Peace Rapid</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>4</v>
+      </c>
+      <c r="F149" t="n">
+        <v>39298651</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Peace Rapid</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6746439</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Abel Barows</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>4</v>
+      </c>
+      <c r="F150" t="n">
+        <v>37164082</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Abel Barows</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>6746439</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Matera San O</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>35819859</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Matera San O</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>6746439</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Itarutokorode</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>38526586</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Itarutokorode</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>6746439</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>B Movie</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>36386848</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>B Movie</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>6746440</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Meisho Mizao</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>36792514</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Meisho Mizao</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>6746440</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sky Luke</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>35867078</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Sky Luke</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>6746440</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Curren Excalibur</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>3</v>
+      </c>
+      <c r="F156" t="n">
+        <v>35922332</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Curren Excalibur</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>6746440</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Hirato Mitchi</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>38590470</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Hirato Mitchi</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>6746442</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Rinno Perfetto</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>35899688</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Rinno Perfetto</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>6746442</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Dozen Flower</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3</v>
+      </c>
+      <c r="F159" t="n">
+        <v>35747961</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Dozen Flower</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>6746442</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Break Neck</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>39235734</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Break Neck</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>6746442</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>For Liliana</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>4</v>
+      </c>
+      <c r="F161" t="n">
+        <v>35798541</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>For Liliana</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>6746444</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Grosser Bar</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>35993236</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Grosser Bar</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>6746444</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>In The Life</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>36151957</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>In The Life</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>6746444</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Malodheep</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>37610475</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Malodheep</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>6746444</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Aparagi</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>38187078</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Aparagi</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>6746449</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Ton Chao</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>2</v>
+      </c>
+      <c r="F166" t="n">
+        <v>40266105</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Ton Chao</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>6746449</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Over The Top</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>39522850</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Over The Top</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>6746449</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Queen Card</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>39563353</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Queen Card</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>6746449</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Dungaree</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>4</v>
+      </c>
+      <c r="F169" t="n">
+        <v>39956674</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Dungaree</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>6746456</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Left Fielder</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>39456791</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Left Fielder</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>6746456</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Cialdoni</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>40286583</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Cialdoni</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>6746456</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Hakodate Memory</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>2</v>
+      </c>
+      <c r="F172" t="n">
+        <v>39235691</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Hakodate Memory</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>6746456</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Nobo Yuki</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>35790903</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Nobo Yuki</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>6746447</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>B B Active</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>35875076</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>B B Active</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>6746447</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Filo</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>4</v>
+      </c>
+      <c r="F175" t="n">
+        <v>39292778</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Filo</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>6746447</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Derma Asura</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>35819960</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Derma Asura</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>6746447</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Live Josef</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>39956676</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Live Josef</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>6746452</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Nanyo Wing</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3</v>
+      </c>
+      <c r="F178" t="n">
+        <v>37999821</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Nanyo Wing</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>6746452</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Moeyo Dragon</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>35908513</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Moeyo Dragon</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>6746452</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Big Sarara Roof</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>5</v>
+      </c>
+      <c r="F180" t="n">
+        <v>39407147</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Big Sarara Roof</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>6746452</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Brother Sun</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>35790700</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Brother Sun</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>6746464</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Crown Hawi</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>5</v>
+      </c>
+      <c r="F182" t="n">
+        <v>36724932</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Crown Hawi</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>6746464</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Cosmo Kirkas</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>4</v>
+      </c>
+      <c r="F183" t="n">
+        <v>35790963</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Cosmo Kirkas</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>6746464</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Meisho Tanikaze</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>2</v>
+      </c>
+      <c r="F184" t="n">
+        <v>35819593</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Meisho Tanikaze</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>6746464</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Sentosa Lady</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>35830926</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Sentosa Lady</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>6746459</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>No Side</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>2</v>
+      </c>
+      <c r="F186" t="n">
+        <v>37417811</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>No Side</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6746459</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Kaiser Melange</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>4</v>
+      </c>
+      <c r="F187" t="n">
+        <v>35867884</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Kaiser Melange</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>6746459</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Victory Ruler</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>5</v>
+      </c>
+      <c r="F188" t="n">
+        <v>35748353</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Victory Ruler</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>6746459</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Japan -- Mizusawa</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Shiny Duque</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>38101871</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Shiny Duque</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>12314435</v>
       </c>
     </row>
   </sheetData>

--- a/excel/赛马2-5名.xlsx
+++ b/excel/赛马2-5名.xlsx
@@ -477,32 +477,32 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6770456</v>
+        <v>6809030</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>日本 -- Kyoto</t>
+          <t>日本 -- Nakayama</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Daishin Ra</t>
+          <t>Red Teleos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>42254763</v>
+        <v>40401852</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daishin Ra</t>
+          <t>Red Teleos</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -511,32 +511,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6770456</v>
+        <v>6809032</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>日本 -- Kyoto</t>
+          <t>日本 -- Nakayama</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lance Of Chaos</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>43260220</v>
+        <v>38745693</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lance Of Chaos</t>
+          <t>Fleur</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -545,7 +545,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6770456</v>
+        <v>6808980</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -554,23 +554,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Museum Mile</t>
+          <t>Marble Rock</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>42164593</v>
+        <v>38438296</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Museum Mile</t>
+          <t>Marble Rock</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -579,32 +579,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6770456</v>
+        <v>6808981</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>日本 -- Kyoto</t>
+          <t>Japan -- Kyoto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Arte Veloce</t>
+          <t>Mad Cool</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>41788295</v>
+        <v>36909728</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Arte Veloce</t>
+          <t>Mad Cool</t>
         </is>
       </c>
       <c r="H5" t="n">
